--- a/sample/exp0_vs_exp1/ps_coef.xlsx
+++ b/sample/exp0_vs_exp1/ps_coef.xlsx
@@ -381,7 +381,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.7216665603558515</v>
+        <v>0.7216665603558513</v>
       </c>
       <c r="C2">
         <v>2.057859902187516</v>
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.8832874822012053</v>
+        <v>0.8832874822012051</v>
       </c>
       <c r="C3">
-        <v>2.41883853852564</v>
+        <v>2.418838538525639</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.04100687009780919</v>
+        <v>0.04100687009780959</v>
       </c>
       <c r="C4">
-        <v>1.041859263195934</v>
+        <v>1.041859263195935</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.06525267011518034</v>
+        <v>-0.0652526701151812</v>
       </c>
       <c r="C5">
-        <v>0.9368307243431991</v>
+        <v>0.9368307243431984</v>
       </c>
     </row>
     <row r="6">
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.373335154518908</v>
+        <v>0.3733351545189076</v>
       </c>
       <c r="C6">
         <v>1.452571094025483</v>
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.2477761285875028</v>
+        <v>-0.2477761285875034</v>
       </c>
       <c r="C7">
-        <v>0.7805346631174511</v>
+        <v>0.7805346631174506</v>
       </c>
     </row>
     <row r="8">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>-0.04198669639431502</v>
+        <v>-0.04198669639431549</v>
       </c>
       <c r="C8">
-        <v>0.9588825370828021</v>
+        <v>0.9588825370828017</v>
       </c>
     </row>
     <row r="9">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.04431701164483776</v>
+        <v>0.04431701164483764</v>
       </c>
       <c r="C9">
         <v>1.045313678977616</v>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.2262367878496987</v>
+        <v>0.2262367878496992</v>
       </c>
       <c r="C10">
         <v>1.253872531910222</v>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.1263982816728196</v>
+        <v>0.1263982816728198</v>
       </c>
       <c r="C11">
         <v>1.134734022059024</v>
